--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111638278</v>
+        <v>111638282</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>588319.7233830886</v>
+        <v>588265.5989708689</v>
       </c>
       <c r="R2" t="n">
-        <v>7033285.591169797</v>
+        <v>7033311.880202802</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -766,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638282</v>
+        <v>111638277</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588265.5989708689</v>
+        <v>588323.0816159723</v>
       </c>
       <c r="R3" t="n">
-        <v>7033311.880202802</v>
+        <v>7033261.485134664</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -883,6 +878,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638277</v>
+        <v>111638283</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588323.0816159723</v>
+        <v>588212.5872669512</v>
       </c>
       <c r="R4" t="n">
-        <v>7033261.485134664</v>
+        <v>7033297.86989607</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -995,11 +995,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111638281</v>
+        <v>111638278</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,21 +1037,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>588278.4784540196</v>
+        <v>588319.7233830886</v>
       </c>
       <c r="R5" t="n">
-        <v>7033316.716959814</v>
+        <v>7033285.591169797</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1112,6 +1107,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638283</v>
+        <v>111638281</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588212.5872669512</v>
+        <v>588278.4784540196</v>
       </c>
       <c r="R6" t="n">
-        <v>7033297.86989607</v>
+        <v>7033316.716959814</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638277</v>
+        <v>111638281</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588323.0816159723</v>
+        <v>588278.4784540196</v>
       </c>
       <c r="R3" t="n">
-        <v>7033261.485134664</v>
+        <v>7033316.716959814</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1138,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638281</v>
+        <v>111638277</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>77267</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1149,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588278.4784540196</v>
+        <v>588323.0816159723</v>
       </c>
       <c r="R6" t="n">
-        <v>7033316.716959814</v>
+        <v>7033261.485134664</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,6 +1219,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638281</v>
+        <v>111638277</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588278.4784540196</v>
+        <v>588323.0816159723</v>
       </c>
       <c r="R3" t="n">
-        <v>7033316.716959814</v>
+        <v>7033261.485134664</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,6 +878,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638283</v>
+        <v>111638278</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588212.5872669512</v>
+        <v>588319.7233830886</v>
       </c>
       <c r="R4" t="n">
-        <v>7033297.86989607</v>
+        <v>7033285.591169797</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -990,6 +995,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111638278</v>
+        <v>111638281</v>
       </c>
       <c r="B5" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1042,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>588319.7233830886</v>
+        <v>588278.4784540196</v>
       </c>
       <c r="R5" t="n">
-        <v>7033285.591169797</v>
+        <v>7033316.716959814</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1102,11 +1112,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638277</v>
+        <v>111638283</v>
       </c>
       <c r="B6" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588323.0816159723</v>
+        <v>588212.5872669512</v>
       </c>
       <c r="R6" t="n">
-        <v>7033261.485134664</v>
+        <v>7033297.86989607</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1219,11 +1224,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638277</v>
+        <v>111638283</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588323.0816159723</v>
+        <v>588212.5872669512</v>
       </c>
       <c r="R3" t="n">
-        <v>7033261.485134664</v>
+        <v>7033297.86989607</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638278</v>
+        <v>111638277</v>
       </c>
       <c r="B4" t="n">
-        <v>56414</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588319.7233830886</v>
+        <v>588323.0816159723</v>
       </c>
       <c r="R4" t="n">
-        <v>7033285.591169797</v>
+        <v>7033261.485134664</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -999,7 +994,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Bohål i gammal grov tall.</t>
+          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111638281</v>
+        <v>111638278</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,21 +1037,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>588278.4784540196</v>
+        <v>588319.7233830886</v>
       </c>
       <c r="R5" t="n">
-        <v>7033316.716959814</v>
+        <v>7033285.591169797</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1112,6 +1107,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638283</v>
+        <v>111638281</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588212.5872669512</v>
+        <v>588278.4784540196</v>
       </c>
       <c r="R6" t="n">
-        <v>7033297.86989607</v>
+        <v>7033316.716959814</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111638282</v>
+        <v>111638281</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>588265.5989708689</v>
+        <v>588278.4784540196</v>
       </c>
       <c r="R2" t="n">
-        <v>7033311.880202802</v>
+        <v>7033316.716959814</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638283</v>
+        <v>111638278</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588212.5872669512</v>
+        <v>588319.7233830886</v>
       </c>
       <c r="R3" t="n">
-        <v>7033297.86989607</v>
+        <v>7033285.591169797</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,6 +878,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638277</v>
+        <v>111638283</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588323.0816159723</v>
+        <v>588212.5872669512</v>
       </c>
       <c r="R4" t="n">
-        <v>7033261.485134664</v>
+        <v>7033297.86989607</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -990,11 +995,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111638278</v>
+        <v>111638277</v>
       </c>
       <c r="B5" t="n">
-        <v>56414</v>
+        <v>77267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,21 +1037,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>588319.7233830886</v>
+        <v>588323.0816159723</v>
       </c>
       <c r="R5" t="n">
-        <v>7033285.591169797</v>
+        <v>7033261.485134664</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Bohål i gammal grov tall.</t>
+          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638281</v>
+        <v>111638282</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588278.4784540196</v>
+        <v>588265.5989708689</v>
       </c>
       <c r="R6" t="n">
-        <v>7033316.716959814</v>
+        <v>7033311.880202802</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638278</v>
+        <v>111638283</v>
       </c>
       <c r="B3" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588319.7233830886</v>
+        <v>588212.5872669512</v>
       </c>
       <c r="R3" t="n">
-        <v>7033285.591169797</v>
+        <v>7033297.86989607</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638283</v>
+        <v>111638282</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588212.5872669512</v>
+        <v>588265.5989708689</v>
       </c>
       <c r="R4" t="n">
-        <v>7033297.86989607</v>
+        <v>7033311.880202802</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1138,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638282</v>
+        <v>111638278</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1149,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588265.5989708689</v>
+        <v>588319.7233830886</v>
       </c>
       <c r="R6" t="n">
-        <v>7033311.880202802</v>
+        <v>7033285.591169797</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,6 +1219,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111638281</v>
+        <v>111638278</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>588278.4784540196</v>
+        <v>588319.7233830886</v>
       </c>
       <c r="R2" t="n">
-        <v>7033316.716959814</v>
+        <v>7033285.591169797</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -766,6 +766,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638283</v>
+        <v>111638281</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588212.5872669512</v>
+        <v>588278.4784540196</v>
       </c>
       <c r="R3" t="n">
-        <v>7033297.86989607</v>
+        <v>7033316.716959814</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638282</v>
+        <v>111638283</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588265.5989708689</v>
+        <v>588212.5872669512</v>
       </c>
       <c r="R4" t="n">
-        <v>7033311.880202802</v>
+        <v>7033297.86989607</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1133,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638278</v>
+        <v>111638282</v>
       </c>
       <c r="B6" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588319.7233830886</v>
+        <v>588265.5989708689</v>
       </c>
       <c r="R6" t="n">
-        <v>7033285.591169797</v>
+        <v>7033311.880202802</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1219,11 +1224,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111638278</v>
+        <v>111638283</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>588319.7233830886</v>
+        <v>588212.5872669512</v>
       </c>
       <c r="R2" t="n">
-        <v>7033285.591169797</v>
+        <v>7033297.86989607</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -766,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638281</v>
+        <v>111638277</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588278.4784540196</v>
+        <v>588323.0816159723</v>
       </c>
       <c r="R3" t="n">
-        <v>7033316.716959814</v>
+        <v>7033261.485134664</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -883,6 +878,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638283</v>
+        <v>111638278</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588212.5872669512</v>
+        <v>588319.7233830886</v>
       </c>
       <c r="R4" t="n">
-        <v>7033297.86989607</v>
+        <v>7033285.591169797</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -995,6 +995,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111638277</v>
+        <v>111638282</v>
       </c>
       <c r="B5" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,21 +1042,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>588323.0816159723</v>
+        <v>588265.5989708689</v>
       </c>
       <c r="R5" t="n">
-        <v>7033261.485134664</v>
+        <v>7033311.880202802</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1107,11 +1112,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638282</v>
+        <v>111638281</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588265.5989708689</v>
+        <v>588278.4784540196</v>
       </c>
       <c r="R6" t="n">
-        <v>7033311.880202802</v>
+        <v>7033316.716959814</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638277</v>
+        <v>111638282</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588323.0816159723</v>
+        <v>588265.5989708689</v>
       </c>
       <c r="R3" t="n">
-        <v>7033261.485134664</v>
+        <v>7033311.880202802</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638278</v>
+        <v>111638281</v>
       </c>
       <c r="B4" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588319.7233830886</v>
+        <v>588278.4784540196</v>
       </c>
       <c r="R4" t="n">
-        <v>7033285.591169797</v>
+        <v>7033316.716959814</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -995,11 +990,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111638282</v>
+        <v>111638277</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>77267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>588265.5989708689</v>
+        <v>588323.0816159723</v>
       </c>
       <c r="R5" t="n">
-        <v>7033311.880202802</v>
+        <v>7033261.485134664</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1112,6 +1102,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638281</v>
+        <v>111638278</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1149,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588278.4784540196</v>
+        <v>588319.7233830886</v>
       </c>
       <c r="R6" t="n">
-        <v>7033316.716959814</v>
+        <v>7033285.591169797</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,6 +1219,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 18163-2023.xlsx
+++ b/artfynd/A 18163-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111638283</v>
+        <v>111638281</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>588212.5872669512</v>
+        <v>588278</v>
       </c>
       <c r="R2" t="n">
-        <v>7033297.86989607</v>
+        <v>7033317</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -753,19 +753,9 @@
           <t>2022-06-16</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-06-16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111638282</v>
+        <v>111638277</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>588265.5989708689</v>
+        <v>588323</v>
       </c>
       <c r="R3" t="n">
-        <v>7033311.880202802</v>
+        <v>7033261</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -865,19 +855,14 @@
           <t>2022-06-16</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-06-16</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +889,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111638281</v>
+        <v>111638278</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +905,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>588278.4784540196</v>
+        <v>588320</v>
       </c>
       <c r="R4" t="n">
-        <v>7033316.716959814</v>
+        <v>7033286</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -977,19 +962,14 @@
           <t>2022-06-16</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-06-16</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +996,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111638277</v>
+        <v>111638283</v>
       </c>
       <c r="B5" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1012,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>588323.0816159723</v>
+        <v>588213</v>
       </c>
       <c r="R5" t="n">
-        <v>7033261.485134664</v>
+        <v>7033298</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1089,24 +1069,9 @@
           <t>2022-06-16</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2022-06-16</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På kolad tallstubbe med yxhugg.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1098,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111638278</v>
+        <v>111638282</v>
       </c>
       <c r="B6" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,21 +1114,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1138,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>588319.7233830886</v>
+        <v>588266</v>
       </c>
       <c r="R6" t="n">
-        <v>7033285.591169797</v>
+        <v>7033312</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1206,24 +1171,9 @@
           <t>2022-06-16</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2022-06-16</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Bohål i gammal grov tall.</t>
         </is>
       </c>
       <c r="AD6" t="b">
